--- a/WorkSchedule/佐藤GuntChart.xlsx
+++ b/WorkSchedule/佐藤GuntChart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GC201911\Desktop\専門学校行事\U22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GC201911\Desktop\U-22\WorkSchedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -730,7 +730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>

--- a/WorkSchedule/佐藤GuntChart.xlsx
+++ b/WorkSchedule/佐藤GuntChart.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
   <si>
     <t>12月13</t>
     <rPh sb="2" eb="3">
@@ -728,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J72"/>
+  <dimension ref="A1:J83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+      <selection activeCell="K15" sqref="K15:P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -789,12 +789,6 @@
         <v>29</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
@@ -824,100 +818,93 @@
       <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="D12" s="1">
+        <v>23</v>
+      </c>
+      <c r="E12" s="1">
+        <v>24</v>
+      </c>
+      <c r="F12" s="1">
+        <v>25</v>
+      </c>
+      <c r="G12" s="1">
+        <v>26</v>
+      </c>
+      <c r="H12" s="1">
+        <v>27</v>
+      </c>
+      <c r="I12" s="1">
+        <v>28</v>
+      </c>
+      <c r="J12" s="1">
+        <v>29</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A15" s="4"/>
-      <c r="D15" s="1">
-        <v>23</v>
-      </c>
-      <c r="E15" s="1">
-        <v>24</v>
-      </c>
-      <c r="F15" s="1">
-        <v>25</v>
-      </c>
-      <c r="G15" s="1">
-        <v>26</v>
-      </c>
-      <c r="H15" s="1">
-        <v>27</v>
-      </c>
-      <c r="I15" s="1">
-        <v>28</v>
-      </c>
-      <c r="J15" s="1">
-        <v>29</v>
-      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
@@ -928,51 +915,54 @@
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
+      <c r="D20" s="1">
+        <v>30</v>
+      </c>
+      <c r="E20" s="1">
+        <v>31</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2</v>
+      </c>
+      <c r="H20" s="1">
+        <v>3</v>
+      </c>
+      <c r="I20" s="1">
+        <v>4</v>
+      </c>
+      <c r="J20" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="D23" s="1">
-        <v>30</v>
-      </c>
-      <c r="E23" s="1">
-        <v>31</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G23" s="1">
-        <v>2</v>
-      </c>
-      <c r="H23" s="1">
-        <v>3</v>
-      </c>
-      <c r="I23" s="1">
-        <v>4</v>
-      </c>
-      <c r="J23" s="1">
-        <v>5</v>
-      </c>
+      <c r="A23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="4" t="s">
@@ -982,18 +972,11 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -1002,10 +985,6 @@
       <c r="A26" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -1014,10 +993,6 @@
       <c r="A27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
@@ -1047,527 +1022,651 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A32" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
+      <c r="D32" s="1">
+        <v>13</v>
+      </c>
+      <c r="E32" s="1">
+        <v>14</v>
+      </c>
+      <c r="F32" s="1">
+        <v>15</v>
+      </c>
+      <c r="G32" s="1">
+        <v>16</v>
+      </c>
+      <c r="H32" s="1">
+        <v>17</v>
+      </c>
+      <c r="I32" s="1">
+        <v>18</v>
+      </c>
+      <c r="J32" s="1">
+        <v>19</v>
+      </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" s="4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A36" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="A36" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37" s="4" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="D38" s="1">
-        <v>13</v>
-      </c>
-      <c r="E38" s="1">
-        <v>14</v>
-      </c>
-      <c r="F38" s="1">
-        <v>15</v>
-      </c>
-      <c r="G38" s="1">
-        <v>16</v>
-      </c>
-      <c r="H38" s="1">
-        <v>17</v>
-      </c>
-      <c r="I38" s="1">
+      <c r="A38" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J38" s="1">
-        <v>19</v>
-      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A39" s="4" t="s">
+      <c r="D39" s="1">
+        <v>20</v>
+      </c>
+      <c r="E39" s="1">
+        <v>21</v>
+      </c>
+      <c r="F39" s="1">
         <v>22</v>
       </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
+      <c r="G39" s="1">
+        <v>23</v>
+      </c>
+      <c r="H39" s="1">
+        <v>24</v>
+      </c>
+      <c r="I39" s="1">
+        <v>25</v>
+      </c>
+      <c r="J39" s="1">
+        <v>26</v>
+      </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40" s="4" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A41" s="5" t="s">
-        <v>19</v>
+      <c r="A41" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="D43" s="1">
+      <c r="A43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A44" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="1">
-        <v>21</v>
-      </c>
-      <c r="F43" s="1">
-        <v>22</v>
-      </c>
-      <c r="G43" s="1">
-        <v>23</v>
-      </c>
-      <c r="H43" s="1">
-        <v>24</v>
-      </c>
-      <c r="I43" s="1">
-        <v>25</v>
-      </c>
-      <c r="J43" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A44" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="D45" s="1">
-        <v>27</v>
-      </c>
-      <c r="E45" s="1">
+      <c r="A45" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A46" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F45" s="1">
-        <v>29</v>
-      </c>
-      <c r="G45" s="1">
-        <v>30</v>
-      </c>
-      <c r="H45" s="1">
-        <v>31</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J45" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A46" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="D47" s="1">
+      <c r="A47" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A48" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="D49" s="1">
+        <v>27</v>
+      </c>
+      <c r="E49" s="1">
+        <v>28</v>
+      </c>
+      <c r="F49" s="1">
+        <v>29</v>
+      </c>
+      <c r="G49" s="1">
+        <v>30</v>
+      </c>
+      <c r="H49" s="1">
+        <v>31</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J49" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A50" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A51" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A52" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A53" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="D54" s="1">
         <v>3</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E54" s="1">
         <v>4</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F54" s="1">
         <v>5</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G54" s="1">
         <v>6</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H54" s="1">
         <v>7</v>
       </c>
-      <c r="I47" s="1">
+      <c r="I54" s="1">
         <v>8</v>
       </c>
-      <c r="J47" s="1">
+      <c r="J54" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A49" s="4"/>
-      <c r="D49" s="1">
-        <v>10</v>
-      </c>
-      <c r="E49" s="1">
-        <v>11</v>
-      </c>
-      <c r="F49" s="1">
-        <v>12</v>
-      </c>
-      <c r="G49" s="1">
-        <v>13</v>
-      </c>
-      <c r="H49" s="1">
-        <v>14</v>
-      </c>
-      <c r="I49" s="1">
-        <v>15</v>
-      </c>
-      <c r="J49" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="D51" s="1">
-        <v>17</v>
-      </c>
-      <c r="E51" s="1">
-        <v>18</v>
-      </c>
-      <c r="F51" s="1">
-        <v>19</v>
-      </c>
-      <c r="G51" s="1">
-        <v>20</v>
-      </c>
-      <c r="H51" s="1">
-        <v>21</v>
-      </c>
-      <c r="I51" s="1">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A55" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J51" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="D53" s="1">
-        <v>24</v>
-      </c>
-      <c r="E53" s="1">
-        <v>25</v>
-      </c>
-      <c r="F53" s="1">
-        <v>26</v>
-      </c>
-      <c r="G53" s="1">
-        <v>27</v>
-      </c>
-      <c r="H53" s="1">
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A56" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I53" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J53" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="D55" s="1">
-        <v>3</v>
-      </c>
-      <c r="E55" s="1">
-        <v>4</v>
-      </c>
-      <c r="F55" s="1">
-        <v>5</v>
-      </c>
-      <c r="G55" s="1">
-        <v>6</v>
-      </c>
-      <c r="H55" s="1">
-        <v>7</v>
-      </c>
-      <c r="I55" s="1">
-        <v>8</v>
-      </c>
-      <c r="J55" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="D57" s="1">
-        <v>10</v>
-      </c>
-      <c r="E57" s="1">
-        <v>11</v>
-      </c>
-      <c r="F57" s="1">
-        <v>12</v>
-      </c>
-      <c r="G57" s="1">
-        <v>13</v>
-      </c>
-      <c r="H57" s="1">
-        <v>14</v>
-      </c>
-      <c r="I57" s="1">
-        <v>15</v>
-      </c>
-      <c r="J57" s="1">
-        <v>16</v>
-      </c>
+      <c r="A57" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A58" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="D59" s="1">
+      <c r="A59" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="D60" s="1">
+        <v>10</v>
+      </c>
+      <c r="E60" s="1">
+        <v>11</v>
+      </c>
+      <c r="F60" s="1">
+        <v>12</v>
+      </c>
+      <c r="G60" s="1">
+        <v>13</v>
+      </c>
+      <c r="H60" s="1">
+        <v>14</v>
+      </c>
+      <c r="I60" s="1">
+        <v>15</v>
+      </c>
+      <c r="J60" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A61" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="D62" s="1">
         <v>17</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E62" s="1">
         <v>18</v>
       </c>
-      <c r="F59" s="1">
+      <c r="F62" s="1">
         <v>19</v>
       </c>
-      <c r="G59" s="1">
+      <c r="G62" s="1">
         <v>20</v>
       </c>
-      <c r="H59" s="1">
+      <c r="H62" s="1">
         <v>21</v>
       </c>
-      <c r="I59" s="1">
+      <c r="I62" s="1">
         <v>22</v>
       </c>
-      <c r="J59" s="1">
+      <c r="J62" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="D61" s="1">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A63" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="D64" s="1">
         <v>24</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E64" s="1">
         <v>25</v>
       </c>
-      <c r="F61" s="1">
+      <c r="F64" s="1">
         <v>26</v>
       </c>
-      <c r="G61" s="1">
+      <c r="G64" s="1">
         <v>27</v>
       </c>
-      <c r="H61" s="1">
+      <c r="H64" s="1">
         <v>28</v>
       </c>
-      <c r="I61" s="1">
-        <v>29</v>
-      </c>
-      <c r="J61" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="D63" s="1">
-        <v>31</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F63" s="1">
+      <c r="I64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J64" s="1">
         <v>2</v>
-      </c>
-      <c r="G63" s="1">
-        <v>3</v>
-      </c>
-      <c r="H63" s="1">
-        <v>4</v>
-      </c>
-      <c r="I63" s="1">
-        <v>5</v>
-      </c>
-      <c r="J63" s="1">
-        <v>6</v>
       </c>
     </row>
     <row r="66" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D66" s="1">
+        <v>3</v>
+      </c>
+      <c r="E66" s="1">
+        <v>4</v>
+      </c>
+      <c r="F66" s="1">
+        <v>5</v>
+      </c>
+      <c r="G66" s="1">
+        <v>6</v>
+      </c>
+      <c r="H66" s="1">
         <v>7</v>
       </c>
-      <c r="E66" s="1">
+      <c r="I66" s="1">
         <v>8</v>
       </c>
-      <c r="F66" s="1">
+      <c r="J66" s="1">
         <v>9</v>
       </c>
-      <c r="G66" s="1">
-        <v>10</v>
-      </c>
-      <c r="H66" s="1">
-        <v>11</v>
-      </c>
-      <c r="I66" s="1">
-        <v>12</v>
-      </c>
-      <c r="J66" s="1">
-        <v>13</v>
-      </c>
+    </row>
+    <row r="67" spans="4:10" x14ac:dyDescent="0.45">
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
     </row>
     <row r="68" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D68" s="1">
+        <v>10</v>
+      </c>
+      <c r="E68" s="1">
+        <v>11</v>
+      </c>
+      <c r="F68" s="1">
+        <v>12</v>
+      </c>
+      <c r="G68" s="1">
+        <v>13</v>
+      </c>
+      <c r="H68" s="1">
         <v>14</v>
       </c>
-      <c r="E68" s="1">
+      <c r="I68" s="1">
         <v>15</v>
       </c>
-      <c r="F68" s="1">
+      <c r="J68" s="1">
         <v>16</v>
       </c>
-      <c r="G68" s="1">
-        <v>17</v>
-      </c>
-      <c r="H68" s="1">
-        <v>18</v>
-      </c>
-      <c r="I68" s="1">
-        <v>19</v>
-      </c>
-      <c r="J68" s="1">
-        <v>20</v>
-      </c>
+    </row>
+    <row r="69" spans="4:10" x14ac:dyDescent="0.45">
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
     </row>
     <row r="70" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D70" s="1">
+        <v>17</v>
+      </c>
+      <c r="E70" s="1">
+        <v>18</v>
+      </c>
+      <c r="F70" s="1">
+        <v>19</v>
+      </c>
+      <c r="G70" s="1">
+        <v>20</v>
+      </c>
+      <c r="H70" s="1">
         <v>21</v>
       </c>
-      <c r="E70" s="1">
+      <c r="I70" s="1">
         <v>22</v>
       </c>
-      <c r="F70" s="1">
+      <c r="J70" s="1">
         <v>23</v>
-      </c>
-      <c r="G70" s="1">
-        <v>24</v>
-      </c>
-      <c r="H70" s="1">
-        <v>25</v>
-      </c>
-      <c r="I70" s="1">
-        <v>26</v>
-      </c>
-      <c r="J70" s="1">
-        <v>27</v>
       </c>
     </row>
     <row r="72" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D72" s="1">
+        <v>24</v>
+      </c>
+      <c r="E72" s="1">
+        <v>25</v>
+      </c>
+      <c r="F72" s="1">
+        <v>26</v>
+      </c>
+      <c r="G72" s="1">
+        <v>27</v>
+      </c>
+      <c r="H72" s="1">
         <v>28</v>
       </c>
-      <c r="E72" s="1">
+      <c r="I72" s="1">
         <v>29</v>
       </c>
-      <c r="F72" s="1">
+      <c r="J72" s="1">
         <v>30</v>
       </c>
-      <c r="G72" s="1">
+    </row>
+    <row r="74" spans="4:10" x14ac:dyDescent="0.45">
+      <c r="D74" s="1">
+        <v>31</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F74" s="1">
+        <v>2</v>
+      </c>
+      <c r="G74" s="1">
+        <v>3</v>
+      </c>
+      <c r="H74" s="1">
+        <v>4</v>
+      </c>
+      <c r="I74" s="1">
+        <v>5</v>
+      </c>
+      <c r="J74" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="4:10" x14ac:dyDescent="0.45">
+      <c r="D77" s="1">
+        <v>7</v>
+      </c>
+      <c r="E77" s="1">
+        <v>8</v>
+      </c>
+      <c r="F77" s="1">
+        <v>9</v>
+      </c>
+      <c r="G77" s="1">
+        <v>10</v>
+      </c>
+      <c r="H77" s="1">
+        <v>11</v>
+      </c>
+      <c r="I77" s="1">
+        <v>12</v>
+      </c>
+      <c r="J77" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="4:10" x14ac:dyDescent="0.45">
+      <c r="D79" s="1">
+        <v>14</v>
+      </c>
+      <c r="E79" s="1">
+        <v>15</v>
+      </c>
+      <c r="F79" s="1">
+        <v>16</v>
+      </c>
+      <c r="G79" s="1">
+        <v>17</v>
+      </c>
+      <c r="H79" s="1">
+        <v>18</v>
+      </c>
+      <c r="I79" s="1">
+        <v>19</v>
+      </c>
+      <c r="J79" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="4:10" x14ac:dyDescent="0.45">
+      <c r="D81" s="1">
+        <v>21</v>
+      </c>
+      <c r="E81" s="1">
+        <v>22</v>
+      </c>
+      <c r="F81" s="1">
+        <v>23</v>
+      </c>
+      <c r="G81" s="1">
+        <v>24</v>
+      </c>
+      <c r="H81" s="1">
+        <v>25</v>
+      </c>
+      <c r="I81" s="1">
+        <v>26</v>
+      </c>
+      <c r="J81" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="83" spans="4:10" x14ac:dyDescent="0.45">
+      <c r="D83" s="1">
+        <v>28</v>
+      </c>
+      <c r="E83" s="1">
+        <v>29</v>
+      </c>
+      <c r="F83" s="1">
+        <v>30</v>
+      </c>
+      <c r="G83" s="1">
         <v>31</v>
       </c>
     </row>
